--- a/layouts/lightplay2a/lightplay2a-BillOfMaterials-screamingCircuitsRound2.xlsx
+++ b/layouts/lightplay2a/lightplay2a-BillOfMaterials-screamingCircuitsRound2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32040" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
   <si>
     <t>10 uH inductor</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>R14,R15</t>
-  </si>
-  <si>
-    <t>R16,R17,R18</t>
   </si>
   <si>
     <t>10k</t>
@@ -485,7 +482,10 @@
     <t>2a - Round 2</t>
   </si>
   <si>
-    <t>long side goes through holes</t>
+    <t>R16,R17</t>
+  </si>
+  <si>
+    <t>Does not exist on board</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="281">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -933,8 +933,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1003,12 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,11 +1022,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="281">
+  <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1186,6 +1191,10 @@
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
@@ -1305,6 +1314,10 @@
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1640,7 +1653,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1660,19 +1673,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>49</v>
@@ -1687,10 +1700,10 @@
         <v>53</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="11"/>
     </row>
@@ -1714,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -1723,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1755,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1787,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1810,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>47</v>
@@ -1819,43 +1832,41 @@
         <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="29" customFormat="1">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>153</v>
-      </c>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -1865,28 +1876,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="28" customFormat="1">
@@ -1897,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -1905,10 +1916,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>119</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -1935,13 +1946,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1973,7 +1984,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2005,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2028,13 +2039,13 @@
         <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2066,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2077,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
@@ -2089,13 +2100,13 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="29" customFormat="1">
@@ -2106,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2114,16 +2125,16 @@
         <v>23</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="K15" s="15"/>
     </row>
@@ -2138,25 +2149,25 @@
         <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -2174,13 +2185,13 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>67</v>
@@ -2189,7 +2200,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2206,54 +2217,54 @@
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="16">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>115</v>
+      <c r="J19" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2264,28 +2275,28 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2314,10 +2325,10 @@
         <v>37</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2331,25 +2342,25 @@
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2360,63 +2371,63 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="29" customFormat="1">
       <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>102</v>
+      <c r="E24" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>101</v>
+      <c r="G24" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>115</v>
+      <c r="I24" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2427,28 +2438,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="29" customFormat="1">
@@ -2459,28 +2470,28 @@
         <v>1</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="15"/>
     </row>
@@ -2492,28 +2503,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2524,64 +2535,62 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="29" customFormat="1">
-      <c r="A29" s="29">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="16">
         <v>1</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>153</v>
-      </c>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1">
       <c r="B30" s="13"/>
@@ -2590,10 +2599,10 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="33"/>
+      <c r="G31" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="38"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
@@ -2603,10 +2612,10 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -2617,10 +2626,10 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="22">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -2631,10 +2640,10 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H34" s="22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -2645,20 +2654,20 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="3:10">
       <c r="C36" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -2669,10 +2678,10 @@
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -2683,10 +2692,10 @@
     </row>
     <row r="38" spans="3:10">
       <c r="C38" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
         <v>148</v>
-      </c>
-      <c r="D38" t="s">
-        <v>149</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -2698,7 +2707,7 @@
     <row r="39" spans="3:10">
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -2710,7 +2719,7 @@
     <row r="40" spans="3:10">
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
